--- a/data/trans_camb/P12B1_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12B1_2_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>82,28</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-21,0</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>37,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>36,23</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>59,13</t>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,77</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2,74</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2,61</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 18,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 15,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 71,71</t>
+          <t>0,0; 16,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-35,77; 87,74</t>
+          <t>0,0; 12,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,99; 90,42</t>
+          <t>0,0; 10,16</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,74</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 9,38</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,87</t>
         </is>
       </c>
     </row>
@@ -687,22 +748,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-33,57%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>59,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>118,69%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>193,69%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -730,7 +806,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -740,7 +816,22 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-52,47</t>
+          <t>-5,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-8,2</t>
+          <t>-3,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>-3,84</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-40,52</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,88</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-2,84</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-1,94</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-1,79</t>
         </is>
       </c>
     </row>
@@ -795,17 +901,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-86,02; -15,66</t>
+          <t>-15,76; -1,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-66,61; 49,61</t>
+          <t>-13,66; 1,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,72; 2,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -815,12 +921,27 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-81,46; -12,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-53,26; 48,72</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-7,84; 0,0</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-6,37; 1,13</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-6,18; 1,79</t>
         </is>
       </c>
     </row>
@@ -838,27 +959,42 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-15,63%</t>
+          <t>-70,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>-68,29%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-16,99%</t>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-68,09%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-62,8%</t>
         </is>
       </c>
     </row>
@@ -876,7 +1012,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 335,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -895,6 +1031,21 @@
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -918,27 +1069,42 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,49</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,13</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,77</t>
+          <t>0,96</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,66</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,26</t>
         </is>
       </c>
     </row>
@@ -961,22 +1127,37 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-45,35; 41,02</t>
+          <t>0,0; 11,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-44,89; 43,84</t>
+          <t>-4,73; 4,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-48,4; 42,77</t>
+          <t>-5,78; 3,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-49,44; 40,9</t>
+          <t>-4,46; 6,29</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-3,07; 3,15</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-3,82; 1,8</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-2,01; 5,04</t>
         </is>
       </c>
     </row>
@@ -994,27 +1175,42 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-11,81%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>-0,86%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-17,99%</t>
+          <t>-26,82%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-13,21%</t>
+          <t>26,92%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-2,55%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-29,99%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>56,85%</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1233,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-75,8; 191,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-68,16; 219,72</t>
+          <t>-87,63; 468,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-88,51; 261,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-85,39; 246,43</t>
+          <t>-77,93; 668,38</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-85,96; 670,77</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-70,42; 602,79</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>14,54</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-7,88</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,12</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,41</t>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1,99</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-34,41; 56,24</t>
+          <t>-2,61; 8,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-51,85; 40,78</t>
+          <t>-2,46; 9,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-44,34; 35,68</t>
+          <t>-2,37; 9,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-34,9; 32,41</t>
+          <t>-6,13; 2,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-24,11; 34,26</t>
+          <t>-4,21; 6,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-30,82; 24,47</t>
+          <t>-4,0; 6,33</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-3,08; 4,6</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-1,75; 6,02</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-1,96; 6,39</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>35,45%</t>
+          <t>101,61%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-19,22%</t>
+          <t>104,91%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-6,66%</t>
+          <t>125,51%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-3,53%</t>
+          <t>-33,35%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>27,25%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-9,89%</t>
+          <t>31,9%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>22,52%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>59,65%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>71,61%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-55,16; 435,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-83,34; 497,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-69,86; 142,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-57,64; 132,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-41,47; 121,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-53,49; 91,84</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-78,8; 380,41</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-53,48; 438,65</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-52,24; 475,26</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>24,81</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-18,1</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>8,6</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>9,8</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-5,38</t>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-0,37</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 62,86</t>
+          <t>-6,96; 9,68</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-53,72; 25,98</t>
+          <t>-6,57; 9,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-36,52; 38,58</t>
+          <t>-8,12; 6,89</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-30,93; 47,58</t>
+          <t>-1,3; 14,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-20,76; 35,81</t>
+          <t>-3,14; 7,81</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-34,81; 20,36</t>
+          <t>-3,13; 8,11</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,65; 8,58</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-3,96; 6,55</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-4,85; 4,53</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>45,04%</t>
+          <t>25,67%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-32,86%</t>
+          <t>24,47%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>-16,28%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>31,61%</t>
+          <t>266,8%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>25,84%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-12,86%</t>
+          <t>46,42%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>65,75%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>23,5%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-9,3%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-18,21; 244,68</t>
+          <t>-79,42; 503,72</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-74,1; 100,47</t>
+          <t>-81,53; 531,9</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-78,56; 475,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-77,35; 516,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-38,53; 130,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-62,17; 74,42</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-48,79; 493,41</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-71,52; 345,57</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-82,46; 366,27</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-16,87</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-16,87</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>9,31</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-3,99</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-44,78; 0,0</t>
+          <t>-12,42; 0,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-50,13; 0,0</t>
+          <t>-12,42; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 37,22</t>
+          <t>-5,29; 9,6</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-14,16; 19,43</t>
+          <t>0,0; 11,29</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-15,84; 14,4</t>
+          <t>0,0; 9,72</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-18,26; 9,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-3,52; 2,06</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-4,37; 1,81</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-2,6; 3,84</t>
         </is>
       </c>
     </row>
@@ -1467,22 +1828,37 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>176,78%</t>
+          <t>81,18%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>52,6%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-20,21%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-41,41%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-11,32%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-22,47%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>63,45%</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1896,22 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-3,94</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>5,77</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-23,23; 19,25</t>
+          <t>-2,78; 2,42</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-25,08; 23,42</t>
+          <t>-2,68; 2,52</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 21,34</t>
+          <t>-2,02; 3,48</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 23,07</t>
+          <t>-1,5; 2,38</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 13,64</t>
+          <t>-1,4; 2,42</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 16,28</t>
+          <t>-1,37; 2,63</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-1,27; 1,63</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-1,17; 1,9</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-0,94; 2,36</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-12,83%</t>
+          <t>-3,37%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-3,66%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>22,96%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>27,01%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-1,71%</t>
+          <t>28,93%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>34,1%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>9,39%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>13,31%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>29,0%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-58,22; 89,91</t>
+          <t>-64,1; 159,29</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-60,85; 115,28</t>
+          <t>-63,57; 151,77</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-42,17; 111,11</t>
+          <t>-54,26; 193,8</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-34,32; 112,41</t>
+          <t>-60,55; 280,09</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-41,94; 61,42</t>
+          <t>-54,84; 301,66</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-31,1; 72,43</t>
+          <t>-53,66; 312,19</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-45,76; 101,06</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-42,42; 128,28</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-32,55; 157,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
